--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3207155.997751036</v>
+        <v>3311335.632202109</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283169</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>169.8308000906937</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.8087673531383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>141.5462431680049</v>
+        <v>77.28770924575309</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>87.28121759428763</v>
       </c>
       <c r="F5" t="n">
-        <v>214.048778526125</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1023,7 +1025,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>95.44336989065498</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>221.4877444290847</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5116590732646</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>4.014908381399654</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>102.0933563356323</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>212.2293408749853</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>34.03048557918999</v>
       </c>
       <c r="W13" t="n">
-        <v>211.8579886296204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>36.74735985928139</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.2376664596877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>4.974488840438626</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>75.5520862197303</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>61.62152140683759</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>8.168913835719746</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>178.494106133871</v>
+        <v>66.12869588327256</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206856</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695504</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>280.7948830437811</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.74333192602695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.4744566894715</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856528</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>13.37642554686328</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856528</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="X37" t="n">
-        <v>81.07546534818876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182121</v>
+        <v>40.37234576591469</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856528</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>44.30292280758154</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>27.6842674365317</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>91.87132188693977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>35.02467705292102</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4373,7 +4375,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1537.086630593157</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,16 +4412,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2879.23544923011</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="C4" t="n">
-        <v>2879.23544923011</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="D4" t="n">
-        <v>2879.23544923011</v>
+        <v>459.1732937329032</v>
       </c>
       <c r="E4" t="n">
-        <v>2736.259446030105</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>2736.259446030105</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435997</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>3133.919937435997</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>2879.23544923011</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>2879.23544923011</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X4" t="n">
-        <v>2879.23544923011</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="Y4" t="n">
-        <v>2879.23544923011</v>
+        <v>609.2899331452389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1792.126722677733</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1423.164205737321</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="D5" t="n">
-        <v>1423.164205737321</v>
+        <v>916.2734125429904</v>
       </c>
       <c r="E5" t="n">
-        <v>1037.375953139077</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653545</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1792.126722677733</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452389</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V7" t="n">
-        <v>609.2899331452389</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="W7" t="n">
-        <v>385.5649387724261</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="X7" t="n">
-        <v>385.5649387724261</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.5649387724261</v>
+        <v>162.9195607661784</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>769.4825048886539</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>383.6942522904097</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810562</v>
@@ -4811,13 +4813,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4886,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4992,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>706.5139342272907</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>706.5139342272907</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>706.5139342272907</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>417.0967641903301</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X10" t="n">
-        <v>417.0967641903301</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,22 +5062,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.703397336071</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X13" t="n">
-        <v>991.7138464380538</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913858</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>734.6461798836027</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>734.6461798836027</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989559</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>3047.140839595366</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577793</v>
+        <v>2878.204656667459</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454435</v>
+        <v>2728.088017255124</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.088017255124</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2581.198069757213</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2414.001970472093</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>3449.581883569136</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>3228.789304425606</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2940.5785039035</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C25" t="n">
-        <v>2771.642320975594</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D25" t="n">
-        <v>2709.398359958586</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E25" t="n">
-        <v>2561.485266376193</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3343.01954787727</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>3122.22696873374</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263191</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>680.4481746984123</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860768</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057736</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359459</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1031.032822456559</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.032822456559</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6491,10 +6493,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6503,10 +6505,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3260.45052572977</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801863</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.397703389527</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807134</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309224</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024104</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673938</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018136</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812249</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775289</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.019547877272</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>3260.45052572977</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263525</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>929.730977335618</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232825</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408896</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429795</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578597</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.74706939642</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>1500.74706939642</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1279.95449025289</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
@@ -6926,13 +6928,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.9487421954774</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>491.0125592675707</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675707</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851778</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851778</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.903366400058</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854709</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648822</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611862</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>1062.389786169247</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.5972070257169</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7257,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3195.647281583945</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656039</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243703</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.68136566131</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.68136566131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.48526637619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3887.505495594675</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>3598.088325557715</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>3598.088325557715</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>3377.295746414185</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7500,13 +7502,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1405.737459147272</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.747908249255</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.9553291057244</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>218.107157744638</v>
       </c>
       <c r="W13" t="n">
-        <v>74.66500970697064</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>111.868113158931</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.3469868924071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.4594738061305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.74262662649356</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>86.99395161137477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>138.2650488108494</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>47.21554925516597</v>
+        <v>159.5809595057646</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.831980181937</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856528</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.728115292809946</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.8413214260676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3575234924655319</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890369</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="X37" t="n">
-        <v>144.6341900408481</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>207.8347205162462</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890369</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>258.8387309000593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>146.0084629450602</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>75.37549921168807</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700103.3209317888</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700103.3209317888</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700103.3209317888</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.071203071973287e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26420,43 @@
         <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.7441040525</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186741</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.6960418674</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186752</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186743</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186749</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151837</v>
+        <v>-791337.8375151835</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124094</v>
+        <v>537406.9082124097</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124094</v>
+        <v>537406.9082124097</v>
       </c>
       <c r="E6" t="n">
-        <v>285070.2520478754</v>
+        <v>285070.2520478758</v>
       </c>
       <c r="F6" t="n">
+        <v>610482.7138552313</v>
+      </c>
+      <c r="G6" t="n">
+        <v>610482.71385523</v>
+      </c>
+      <c r="H6" t="n">
+        <v>610482.7138552306</v>
+      </c>
+      <c r="I6" t="n">
+        <v>610482.7138552312</v>
+      </c>
+      <c r="J6" t="n">
+        <v>392951.5114579532</v>
+      </c>
+      <c r="K6" t="n">
         <v>610482.7138552308</v>
       </c>
-      <c r="G6" t="n">
-        <v>610482.7138552309</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>610482.7138552308</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>525427.6859197194</v>
+      </c>
+      <c r="N6" t="n">
         <v>610482.7138552308</v>
       </c>
-      <c r="J6" t="n">
-        <v>392951.5114579531</v>
-      </c>
-      <c r="K6" t="n">
-        <v>610482.7138552305</v>
-      </c>
-      <c r="L6" t="n">
-        <v>610482.7138552306</v>
-      </c>
-      <c r="M6" t="n">
-        <v>525427.6859197186</v>
-      </c>
-      <c r="N6" t="n">
-        <v>610482.7138552306</v>
-      </c>
       <c r="O6" t="n">
-        <v>610482.7138552309</v>
+        <v>610482.7138552312</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552308</v>
+        <v>610482.7138552311</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>184.8522415299893</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>226.4291713029153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.887719478564293</v>
+        <v>69.14625340081608</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>294.6491524779742</v>
       </c>
       <c r="F5" t="n">
-        <v>192.8272672155865</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>50.99059275591419</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>65.0352539075063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>145.3643866684469</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>323.7373500887352</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>77.73862384630496</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>7.319608401183899</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28384,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31619,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>689.3300812557334</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>465.2170623840748</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566326</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>491.5977325265306</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067242</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>193.1175412796309</v>
+        <v>150.2061940096332</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33667,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33734,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33904,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33977,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2529048371032</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,31 +34447,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>557.9883691724001</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>322.6208179396303</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396398</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>349.0014880820862</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236318326</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>61.77582919629761</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37382,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37625,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1188709150848</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,31 +38095,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311335.632202109</v>
+        <v>3307323.022188116</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>169.8308000906937</v>
+        <v>195.7072339319575</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363107927</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>77.28770924575309</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>87.28121759428763</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>194.5727296124802</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>95.44336989065498</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.45803047044392</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>384.7286950268538</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4.014908381399654</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.0933563356323</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>34.03048557918999</v>
+        <v>213.4159673288106</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>36.74735985928139</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>75.5520862197303</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>15.51491006411133</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>8.168913835719746</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>66.12869588327256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>280.7948830437811</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>13.37642554686328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>40.37234576591469</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.70119244397701</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.02467705292102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033357</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="D2" t="n">
-        <v>767.8615162854633</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>382.0732636872191</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>609.2899331452389</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>459.1732937329032</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149741</v>
+        <v>2244.121949002409</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.539111149741</v>
+        <v>1875.159432061997</v>
       </c>
       <c r="D5" t="n">
-        <v>916.2734125429904</v>
+        <v>1516.893733455247</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1131.105480857003</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>720.1195760673952</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>305.0471259123917</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
@@ -4576,19 +4576,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.9195607661784</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>162.9195607661784</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>162.9195607661784</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>162.9195607661784</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>162.9195607661784</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X7" t="n">
-        <v>162.9195607661784</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.9195607661784</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1914.669427940026</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1545.706910999614</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1187.441212392864</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>801.6529597946194</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>794.7074590454159</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2751.75146578281</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.3452334219999</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219999</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342034</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913858</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972545</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836027</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836027</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138424</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349516</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349516</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989559</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595366</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.204656667459</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.088017255124</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.088017255124</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2581.198069757213</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2414.001970472093</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1922.614765620014</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467153</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569136</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425606</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577793</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>639.9526724577793</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000197</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102179</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>989.3306680894883</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>820.3944851615814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,22 +7727,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9161830442239</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>218.107157744638</v>
+        <v>38.72167599501745</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.868113158931</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.74262662649356</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>165.5113759375333</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>138.2650488108494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.728115292809946</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2431272522977</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.5599762991738</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778549</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778555</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778555</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.071203071973287e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26438,10 +26438,10 @@
         <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151835</v>
+        <v>-791337.8375151828</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124097</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124097</v>
+        <v>537406.9082124089</v>
       </c>
       <c r="E6" t="n">
-        <v>285070.2520478758</v>
+        <v>284722.8727935182</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552313</v>
+        <v>610135.3346008739</v>
       </c>
       <c r="G6" t="n">
-        <v>610482.71385523</v>
+        <v>610135.3346008739</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552306</v>
+        <v>610135.334600874</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552312</v>
+        <v>610135.3346008739</v>
       </c>
       <c r="J6" t="n">
-        <v>392951.5114579532</v>
+        <v>392604.1322035964</v>
       </c>
       <c r="K6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.3346008738</v>
       </c>
       <c r="L6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.3346008738</v>
       </c>
       <c r="M6" t="n">
-        <v>525427.6859197194</v>
+        <v>525080.3066653622</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.334600874</v>
       </c>
       <c r="O6" t="n">
-        <v>610482.7138552312</v>
+        <v>610135.334600874</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552311</v>
+        <v>610135.3346008739</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>184.8522415299893</v>
+        <v>158.9758076887254</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69.14625340081608</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>294.6491524779742</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100.0350347748403</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>50.99059275591419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661471</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>26.19303062659969</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>323.7373500887352</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.73862384630496</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>689.3300812557334</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>465.2170623840748</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.754615566326</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>491.5977325265306</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,31 +34210,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>557.9883691724001</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>322.6208179396303</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396398</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>349.0014880820862</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3307323.022188116</v>
+        <v>3309083.552490902</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8088979.934727984</v>
+        <v>8088979.934727983</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>36.3270796166963</v>
       </c>
       <c r="D2" t="n">
-        <v>195.7072339319575</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>131.3972404049041</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>74.55681854024962</v>
       </c>
       <c r="H5" t="n">
-        <v>194.5727296124802</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1031,7 +1031,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>54.45803047044392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>384.7286950268538</v>
+        <v>299.4782125119776</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8428862394539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>204.7158181704328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>36.4306205949056</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>213.4159673288106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>15.51491006411133</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>112.7304175246782</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.213961756482</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.251444816071</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820604</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>347.1496952720554</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>199.2366016896623</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>199.2366016896623</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2244.121949002409</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1875.159432061997</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D5" t="n">
-        <v>1516.893733455247</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.105480857003</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F5" t="n">
-        <v>720.1195760673952</v>
+        <v>141.8220341496073</v>
       </c>
       <c r="G5" t="n">
-        <v>305.0471259123917</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2630.721789066531</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318776</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.669427940026</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C8" t="n">
-        <v>1545.706910999614</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D8" t="n">
-        <v>1187.441212392864</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E8" t="n">
-        <v>801.6529597946194</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F8" t="n">
-        <v>794.7074590454159</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181849</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>920.8870058181849</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.859873431788</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W13" t="n">
-        <v>1250.442703394828</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.45315249681</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.6605733532801</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2431.291457252875</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1922.614765620014</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.930277414127</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.595665406739</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>38.72167599501745</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>68.29586847696642</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778554</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26435,13 +26435,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26450,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151828</v>
+        <v>-791337.8375151835</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124096</v>
+        <v>537406.9082124095</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124089</v>
+        <v>537406.9082124098</v>
       </c>
       <c r="E6" t="n">
-        <v>284722.8727935182</v>
+        <v>285035.5141224397</v>
       </c>
       <c r="F6" t="n">
-        <v>610135.3346008739</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="G6" t="n">
-        <v>610135.3346008739</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="H6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="I6" t="n">
-        <v>610135.3346008739</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="J6" t="n">
-        <v>392604.1322035964</v>
+        <v>392916.7735325177</v>
       </c>
       <c r="K6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="L6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="M6" t="n">
-        <v>525080.3066653622</v>
+        <v>525392.9479942834</v>
       </c>
       <c r="N6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="O6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="P6" t="n">
-        <v>610135.3346008739</v>
+        <v>610447.9759297953</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>328.9458121543112</v>
       </c>
       <c r="D2" t="n">
-        <v>158.9758076887254</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754857</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>34.62856785412416</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>336.3649071132038</v>
       </c>
       <c r="H5" t="n">
-        <v>100.0350347748403</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0649678661471</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>26.19303062659969</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>13.86883518166201</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256867</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
